--- a/biology/Botanique/Orchis_occitan/Orchis_occitan.xlsx
+++ b/biology/Botanique/Orchis_occitan/Orchis_occitan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylorhiza occitanica
 L’Orchis occitan ou Dactylorhize d'Occitanie (Dactylorhiza occitanica) est une orchidée terrestre d'aire méditerranéenne, appartenant au genre Dactylorhiza Necker ex Nevski, 1937 et au groupe de l'Orchis élevé (Dactylorhiza elata, (Poir.) Soó, 1962).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Occitanie, par référence à la localité du type, dans l'Hérault (1987).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : Port assez élevé, de 20 à 50 cm.
 Feuilles : Oblongues à lancéolées, de 4 à 8, le plus souvent non maculées.
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De fin avril à juin.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de pleine lumière, jusqu'à 400 m, dans des prairies humides à la période de floraison, au substrat le plus souvent alcalin.
 </t>
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce d'aire méditerranéenne, a priori uniquement en France métropolitaine (Hérault, Gard, Bouches-du-Rhône, Var, Vaucluse, Alpes-de-Haute-Provence, Ardèche, Drôme).
 </t>
@@ -670,7 +692,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce menacée par la raréfaction de son biotope (drainages, amendements, urbanisation...), protégée régionalement.
 Statut de conservation UICN : Espèce quasi menacée (NT).
@@ -702,7 +726,9 @@
           <t>Référence bibliographique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(fr) Marcel Bournérias, Daniel Prat &amp; al. (collectif de la Société Française d’Orchidophilie), Les Orchidées de France, Belgique et Luxembourg, 2e édition 2005, Biotope (collection Parthénope), Mèze, 504 p.</t>
         </is>
